--- a/biology/Médecine/Exanthème_scarlatiniforme/Exanthème_scarlatiniforme.xlsx
+++ b/biology/Médecine/Exanthème_scarlatiniforme/Exanthème_scarlatiniforme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Exanth%C3%A8me_scarlatiniforme</t>
+          <t>Exanthème_scarlatiniforme</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un exanthème scarlatiniforme est une éruption cutanée caractérisée par des placards érythémateux, rouge foncé, sans intervalle de peau saine, disparaissant à la vitro-pression et évoluant secondairement vers la desquamation[1]. Les nappes rouges sont parsemées d'un piqueté maculo-papuleux procurant une sensation de granité au toucher et prédominent aux plis de flexion[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un exanthème scarlatiniforme est une éruption cutanée caractérisée par des placards érythémateux, rouge foncé, sans intervalle de peau saine, disparaissant à la vitro-pression et évoluant secondairement vers la desquamation. Les nappes rouges sont parsemées d'un piqueté maculo-papuleux procurant une sensation de granité au toucher et prédominent aux plis de flexion,.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Exanth%C3%A8me_scarlatiniforme</t>
+          <t>Exanthème_scarlatiniforme</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les causes d'exanthème scarlatiniforme sont très nombreuses[2],[3] mais les principales sont[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les causes d'exanthème scarlatiniforme sont très nombreuses, mais les principales sont :
 des maladies infectieuses bactériennes telles que la scarlatine, la scarlatine staphylococcique, le syndrome du choc toxique staphylococcique, des septicémies à staphylocoques et streptocoques, mais aussi des infections virales atypiques telles que la mononucléose infectieuse ;
 la maladie de Kawasaki ;
 Les toxidermies.</t>
